--- a/dataset/seoul_stop_school.xlsx
+++ b/dataset/seoul_stop_school.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Structure/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Structure/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC72E7AF-F1F8-394B-895D-40274AC99415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587ED8F6-31C0-A947-9F71-F4BEA6BACF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19180" yWindow="-1460" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HT1" workbookViewId="0">
-      <selection activeCell="IE5" sqref="IE5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
